--- a/_PLAN/Tables pages concepts.xlsx
+++ b/_PLAN/Tables pages concepts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API\loanToolApp\_PLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DADB7B-4A6D-4DF5-AFD8-E9344D94A5F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5478DAA-8C80-4FFF-A5C3-35743CCB0147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8536" xr2:uid="{CE7EEF5A-B53F-4026-870A-F3CB51798D78}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>tables</t>
   </si>
@@ -82,9 +82,6 @@
     <t>testing</t>
   </si>
   <si>
-    <t>TABLE STRUCTURE</t>
-  </si>
-  <si>
     <t>LARAVEL PART</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>onStock</t>
   </si>
   <si>
-    <t>tool_picture_link</t>
-  </si>
-  <si>
     <t>tool_id</t>
   </si>
   <si>
@@ -166,15 +160,6 @@
     <t>Telescope</t>
   </si>
   <si>
-    <t>choosen_price</t>
-  </si>
-  <si>
-    <t>taken_date</t>
-  </si>
-  <si>
-    <t>returned_date</t>
-  </si>
-  <si>
     <t>picture links for tools</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
     <t>repairs</t>
   </si>
   <si>
-    <t>repair_comments</t>
-  </si>
-  <si>
     <t>repair_cost</t>
   </si>
   <si>
@@ -230,6 +212,30 @@
   </si>
   <si>
     <t>reservations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = foreign key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TABLE STRUCTURE-&gt;order them in by their creation order. 1-users 2-tables without foreign keyes 3-tabels with for. Keyes</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tool_picture_url</t>
+  </si>
+  <si>
+    <t>4h_or_24h_price</t>
+  </si>
+  <si>
+    <t>taken(date)</t>
+  </si>
+  <si>
+    <t>returned(date)</t>
   </si>
 </sst>
 </file>
@@ -275,7 +281,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,7 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -360,12 +372,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562C513A-CEF2-47DE-9D7A-6847428F89B6}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +720,7 @@
     <col min="6" max="6" width="13.3984375" customWidth="1"/>
     <col min="7" max="7" width="21.09765625" customWidth="1"/>
     <col min="8" max="8" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.09765625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.796875" customWidth="1"/>
     <col min="13" max="13" width="16.296875" customWidth="1"/>
@@ -709,7 +728,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -743,101 +762,101 @@
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C6" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="8"/>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="16"/>
@@ -845,7 +864,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="8"/>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -855,7 +874,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="8"/>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
@@ -868,7 +887,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="8"/>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -876,7 +895,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -884,21 +903,24 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -906,13 +928,16 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -922,192 +947,230 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>1</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="F17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>2</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" s="17" t="s">
+      <c r="F18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>22</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>3</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="K19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>4</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>26</v>
+      <c r="C20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>5</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>42</v>
+      <c r="C21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>6</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="15"/>
+      <c r="E22" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="C23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C24" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="C24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H25" s="15"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H30" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A6:A15">

--- a/_PLAN/Tables pages concepts.xlsx
+++ b/_PLAN/Tables pages concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API\loanToolApp\_PLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5478DAA-8C80-4FFF-A5C3-35743CCB0147}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB8F8E-1982-49A6-9C92-FC11584FB64B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8536" xr2:uid="{CE7EEF5A-B53F-4026-870A-F3CB51798D78}"/>
   </bookViews>
@@ -24,42 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>User</author>
-  </authors>
-  <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{BEFFFAA8-2FA1-4C2F-84AE-5269C2B9DDDB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-It could be more than one scanned document...</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>tables</t>
   </si>
@@ -82,9 +48,6 @@
     <t>testing</t>
   </si>
   <si>
-    <t>LARAVEL PART</t>
-  </si>
-  <si>
     <t>qty to fake</t>
   </si>
   <si>
@@ -217,9 +180,6 @@
     <t xml:space="preserve"> = foreign key</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>TABLE STRUCTURE-&gt;order them in by their creation order. 1-users 2-tables without foreign keyes 3-tabels with for. Keyes</t>
   </si>
   <si>
@@ -236,13 +196,19 @@
   </si>
   <si>
     <t>returned(date)</t>
+  </si>
+  <si>
+    <t>belongsToMany</t>
+  </si>
+  <si>
+    <t>invoice_lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,19 +232,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -340,12 +293,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,7 +306,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -703,22 +654,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562C513A-CEF2-47DE-9D7A-6847428F89B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562C513A-CEF2-47DE-9D7A-6847428F89B6}">
   <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="9" customWidth="1"/>
     <col min="3" max="3" width="15.69921875" customWidth="1"/>
     <col min="4" max="4" width="10.8984375" customWidth="1"/>
     <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" customWidth="1"/>
-    <col min="7" max="7" width="21.09765625" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
     <col min="8" max="8" width="13.296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.09765625" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -726,451 +677,422 @@
     <col min="13" max="13" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="N7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="16" t="s">
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="J9" s="7"/>
+      <c r="N9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="M6" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="7"/>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="14"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="7"/>
+      <c r="N11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="8"/>
-      <c r="M7" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="14"/>
+      <c r="F12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="N12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F8" s="8"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="8"/>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="16"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="8"/>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="18" t="s">
-        <v>51</v>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="6" t="s">
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>3</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="14">
-        <v>1</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="M19" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>4</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="12">
+        <v>5</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
+        <v>6</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="D22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="14">
-        <v>3</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="24" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="14">
-        <v>4</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="14">
-        <v>5</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
-        <v>6</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C23" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C24" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H25" s="15"/>
+      <c r="G24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H25" s="13"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H30" s="15"/>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H30" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A6:A15">
@@ -1178,6 +1100,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_PLAN/Tables pages concepts.xlsx
+++ b/_PLAN/Tables pages concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API\loanToolApp\_PLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB8F8E-1982-49A6-9C92-FC11584FB64B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2F2174-ACBB-4337-BF85-3A1963C35717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8536" xr2:uid="{CE7EEF5A-B53F-4026-870A-F3CB51798D78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>tables</t>
   </si>
@@ -153,9 +153,6 @@
     <t>serial_number</t>
   </si>
   <si>
-    <t>inovice_lines</t>
-  </si>
-  <si>
     <t>invoice_id</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>tool_picture_url</t>
   </si>
   <si>
-    <t>4h_or_24h_price</t>
-  </si>
-  <si>
     <t>taken(date)</t>
   </si>
   <si>
@@ -202,6 +196,18 @@
   </si>
   <si>
     <t>invoice_lines</t>
+  </si>
+  <si>
+    <t>tool goes out on different window</t>
+  </si>
+  <si>
+    <t>tool comes back different window</t>
+  </si>
+  <si>
+    <t>inovice_items</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -293,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -336,6 +348,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +672,7 @@
   <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>11</v>
@@ -759,11 +773,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>4</v>
@@ -784,11 +798,11 @@
         <v>3</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>4</v>
@@ -848,7 +862,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C15" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -859,7 +873,7 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -872,10 +886,10 @@
         <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>1</v>
       </c>
@@ -896,7 +910,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>2</v>
       </c>
@@ -925,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>3</v>
       </c>
@@ -942,7 +956,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>41</v>
@@ -957,13 +971,13 @@
         <v>23</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M19" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>4</v>
       </c>
@@ -979,52 +993,52 @@
       <c r="F20" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="18" t="s">
+      <c r="G20" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>5</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="18" t="s">
+      <c r="L21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>6</v>
       </c>
@@ -1044,9 +1058,9 @@
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>13</v>
@@ -1055,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>20</v>
@@ -1064,10 +1078,13 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>13</v>
@@ -1085,13 +1102,16 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H25" s="13"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H30" s="13"/>
     </row>
   </sheetData>

--- a/_PLAN/Tables pages concepts.xlsx
+++ b/_PLAN/Tables pages concepts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API\loanToolApp\_PLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2F2174-ACBB-4337-BF85-3A1963C35717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE4F7C-5C1A-457E-AAC5-15C08CBCCFCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8536" xr2:uid="{CE7EEF5A-B53F-4026-870A-F3CB51798D78}"/>
   </bookViews>
